--- a/data/Thermophiles.xlsx
+++ b/data/Thermophiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{CF0128CF-9427-4E58-99E0-EA5C0860F0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16ED7892-C804-4705-996D-D7D28DFCF555}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{CF0128CF-9427-4E58-99E0-EA5C0860F0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{845FFA43-8D7B-4F0C-ADB1-79ED8929C5C4}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="120" windowWidth="14400" windowHeight="7360" xr2:uid="{C8531BF3-4F65-4E14-9261-297BE1BD2A4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8531BF3-4F65-4E14-9261-297BE1BD2A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="180">
   <si>
     <t>to_synthesize</t>
   </si>
@@ -318,13 +318,365 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria bacterium strain B30_G6</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria</t>
+  </si>
+  <si>
+    <t>DRH90_03805</t>
+  </si>
+  <si>
+    <t>DRH90_20590</t>
+  </si>
+  <si>
+    <t>DRH90_20585</t>
+  </si>
+  <si>
+    <t>fig|2026735.166.peg.848</t>
+  </si>
+  <si>
+    <t>fig|2026735.166.peg.4700</t>
+  </si>
+  <si>
+    <t>fig|2026735.166.peg.4699</t>
+  </si>
+  <si>
+    <t>deep-sea hydrothermal vent sediments from dive 4569_2 depth 0-3 cm</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>27°00.9087N, 111° 22.7932W</t>
+  </si>
+  <si>
+    <t>Guaymas Basin (Gulf of California)</t>
+  </si>
+  <si>
+    <t>psychrophiles from thermophiles</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria bacterium strain B9_G4</t>
+  </si>
+  <si>
+    <t>DRH30_08870</t>
+  </si>
+  <si>
+    <t>DRH30_08880</t>
+  </si>
+  <si>
+    <t>DRH30_08885</t>
+  </si>
+  <si>
+    <t>fig|2026735.148.peg.1837</t>
+  </si>
+  <si>
+    <t>fig|2026735.148.peg.1839</t>
+  </si>
+  <si>
+    <t>fig|2026735.148.peg.1840</t>
+  </si>
+  <si>
+    <t>deep-sea hydrothermal vent sediments from dive 4569_4 depth 0-3 cm</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41467-018-07418-0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA362212</t>
+  </si>
+  <si>
+    <t>Epsilonproteobacteria bacterium strain B11_G4</t>
+  </si>
+  <si>
+    <t>Epsilonproteobacteria</t>
+  </si>
+  <si>
+    <t>DRQ88_10755</t>
+  </si>
+  <si>
+    <t>DRQ88_10765</t>
+  </si>
+  <si>
+    <t>DRQ88_10770</t>
+  </si>
+  <si>
+    <t>fig|2026809.16.peg.2167</t>
+  </si>
+  <si>
+    <t>fig|2026809.16.peg.2169</t>
+  </si>
+  <si>
+    <t>fig|2026809.16.peg.2170</t>
+  </si>
+  <si>
+    <t>Verrucomicrobia bacterium strain B12_G4</t>
+  </si>
+  <si>
+    <t>Verrucomicrobia</t>
+  </si>
+  <si>
+    <t>DRP71_02100</t>
+  </si>
+  <si>
+    <t>DRP71_01465</t>
+  </si>
+  <si>
+    <t>DRP71_01460</t>
+  </si>
+  <si>
+    <t>fig|2026799.183.peg.457</t>
+  </si>
+  <si>
+    <t>fig|2026799.183.peg.320</t>
+  </si>
+  <si>
+    <t>fig|2026799.183.peg.319</t>
+  </si>
+  <si>
+    <t>25.23°N 98.5°E</t>
+  </si>
+  <si>
+    <t>34.98583 N, 138.38539 E</t>
+  </si>
+  <si>
+    <t>56°30′N 84°58′E</t>
+  </si>
+  <si>
+    <t>36°33′18.4″N 139°52′57.2″E</t>
+  </si>
+  <si>
+    <t>38.03812 N, 176.549310 E</t>
+  </si>
+  <si>
+    <t>NCBI sample_name</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>IMG Genome ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dive &amp; core </t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Depth (cm)</t>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mM)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sulfide (mM)</t>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C-CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>DIC (mM)</t>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C-DIC</t>
+    </r>
+  </si>
+  <si>
+    <t>Alkanes</t>
+  </si>
+  <si>
+    <t>T (°C)</t>
+  </si>
+  <si>
+    <t>Hydrothermal activity</t>
+  </si>
+  <si>
+    <t>Beggiatoa</t>
+  </si>
+  <si>
+    <t>Collection Year</t>
+  </si>
+  <si>
+    <t>Collection Month</t>
+  </si>
+  <si>
+    <t>Collection Day</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41467-018-07418-0</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria bacterium B30_G6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>4569_2</t>
+  </si>
+  <si>
+    <t>Vent1b (intermediate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-3</t>
+  </si>
+  <si>
+    <t>40 - 50 (uM ethane)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>27°00.9087N</t>
+  </si>
+  <si>
+    <t>111° 22.7932W</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria bacterium B9_G4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>4569_4</t>
+  </si>
+  <si>
+    <t>Vent1a (outside)</t>
+  </si>
+  <si>
+    <t>&lt;1 (uM ethane)</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>Epsilonproteobacteria bacterium B11_G4</t>
+  </si>
+  <si>
+    <t>Verrucomicrobia bacterium B12_G4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +732,65 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +812,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -487,6 +920,71 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -804,15 +1302,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA0DA4-72B0-4CDB-AEC1-6D1F7DFFD540}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -930,9 +1428,15 @@
       <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="4">
+        <v>25.23</v>
+      </c>
+      <c r="S2" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
@@ -944,7 +1448,7 @@
       </c>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7">
         <v>1</v>
@@ -994,9 +1498,15 @@
       <c r="Q3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="R3" s="7">
+        <v>34.98583</v>
+      </c>
+      <c r="S3" s="7">
+        <v>138.38539</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="U3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>1</v>
@@ -1065,9 +1575,15 @@
       <c r="Q4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="R4" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="S4" s="4">
+        <v>84.966999999999999</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="U4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1077,7 +1593,7 @@
       </c>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="7">
         <v>1</v>
@@ -1127,9 +1643,15 @@
       <c r="Q5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="R5" s="7">
+        <v>36</v>
+      </c>
+      <c r="S5" s="7">
+        <v>139</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="U5" s="5" t="s">
         <v>65</v>
       </c>
@@ -1139,7 +1661,7 @@
       </c>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="7">
         <v>1</v>
@@ -1189,9 +1711,15 @@
       <c r="Q6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="R6" s="7">
+        <v>-38.038119999999999</v>
+      </c>
+      <c r="S6" s="7">
+        <v>176.54930999999999</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="U6" s="9" t="s">
         <v>75</v>
       </c>
@@ -1201,7 +1729,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>1</v>
@@ -1269,8 +1797,641 @@
       </c>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R10" s="12">
+        <v>27.015000000000001</v>
+      </c>
+      <c r="S10" s="12">
+        <v>-111.37990000000001</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="R11" s="7">
+        <v>27.015000000000001</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-111.37990000000001</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="R12" s="12">
+        <v>27.015000000000001</v>
+      </c>
+      <c r="S12" s="12">
+        <v>-111.37990000000001</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" s="14"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>27.015000000000001</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-111.37990000000001</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="16" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA16" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD16" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29">
+        <v>3300013099</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="32">
+        <v>21.76</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32">
+        <v>0.4760623701284481</v>
+      </c>
+      <c r="O17" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="32">
+        <v>-38.61</v>
+      </c>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33">
+        <v>10.502572434335228</v>
+      </c>
+      <c r="T17" s="13">
+        <v>-13.3</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="V17" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>2009</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA17" s="34">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29">
+        <v>3300013101</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="32">
+        <v>24.250624428876026</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="O18" s="32">
+        <v>1.2975670269077555E-2</v>
+      </c>
+      <c r="P18" s="32">
+        <v>-47.6</v>
+      </c>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33">
+        <v>4.060655293799079</v>
+      </c>
+      <c r="T18" s="13">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="V18" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>2009</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA18" s="34">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="29">
+        <v>3300013101</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="32">
+        <v>24.250624428876026</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="O19" s="32">
+        <v>1.2975670269077555E-2</v>
+      </c>
+      <c r="P19" s="32">
+        <v>-47.6</v>
+      </c>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33">
+        <v>4.060655293799079</v>
+      </c>
+      <c r="T19" s="13">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="V19" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>2009</v>
+      </c>
+      <c r="Z19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA19" s="34">
+        <v>30</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="29">
+        <v>3300013101</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="32">
+        <v>24.250624428876026</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="O20" s="32">
+        <v>1.2975670269077555E-2</v>
+      </c>
+      <c r="P20" s="32">
+        <v>-47.6</v>
+      </c>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33">
+        <v>4.060655293799079</v>
+      </c>
+      <c r="T20" s="13">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="V20" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>2009</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA20" s="34">
+        <v>30</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1281,7 +2442,10 @@
     <hyperlink ref="W3" r:id="rId5" xr:uid="{9A169304-5604-47C2-BA0D-8E25602364EB}"/>
     <hyperlink ref="W4" r:id="rId6" xr:uid="{686AB12D-DCAA-45C8-A7D5-54F63C0E741C}"/>
     <hyperlink ref="W5" r:id="rId7" xr:uid="{5F58F2A9-D05A-4692-BB96-8195F211B069}"/>
+    <hyperlink ref="X11" r:id="rId8" xr:uid="{1D9941BF-7C81-4FB4-8C6A-38EF5FA86D5F}"/>
+    <hyperlink ref="AD16" r:id="rId9" display="https://doi.org/10.1038/s41467-018-07418-0" xr:uid="{09884887-8632-4512-9D7D-3BD0B3CE118F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>